--- a/Hardware_fabrication/Tracker/Peggy Tracker v5 01.08.2022/Peggy Tracker v5 BOM.xlsx
+++ b/Hardware_fabrication/Tracker/Peggy Tracker v5 01.08.2022/Peggy Tracker v5 BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HighClassSystems\Projects\KazATU\Peggy\Hardware\Tracker\Project Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HighClassSystems\Projects\KazATU\Peggy\Hardware_fabrication\Tracker\Peggy Tracker v5 01.08.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="234">
   <si>
     <t>#</t>
   </si>
@@ -705,6 +705,24 @@
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 2</t>
+  </si>
+  <si>
+    <t>Manufacturer 2</t>
+  </si>
+  <si>
+    <t>DS1338Z-3+T&amp;R</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc./Maxim Integrated</t>
+  </si>
+  <si>
+    <t>LTST-C191TGKT</t>
+  </si>
+  <si>
+    <t>Lite-On Inc.</t>
   </si>
 </sst>
 </file>
@@ -748,7 +766,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -925,24 +949,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -1530,10 +1560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,20 +1576,20 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="11" width="31.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1566,8 +1597,10 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1582,8 +1615,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1594,12 +1629,14 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1625,25 +1662,31 @@
         <v>186</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <f>ROW(A5) - ROW($A$4)</f>
         <v>1</v>
@@ -1669,30 +1712,32 @@
       <c r="H5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12">
-        <f>J5*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <f>L5*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
         <v>9024384</v>
       </c>
-      <c r="M5" s="12">
+      <c r="O5" s="12">
         <v>0.12</v>
       </c>
-      <c r="N5" s="10">
-        <f>K5*M5</f>
+      <c r="P5" s="10">
+        <f>M5*O5</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <f t="shared" ref="A6:A45" si="0">ROW(A6) - ROW($A$4)</f>
+        <f t="shared" ref="A6:A44" si="0">ROW(A6) - ROW($A$4)</f>
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1716,28 +1761,30 @@
       <c r="H6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ref="K6:K45" si="1">J6*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ref="M6" si="1">L6*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
         <v>18094667</v>
       </c>
-      <c r="M6" s="6">
+      <c r="O6" s="6">
         <v>0.11</v>
       </c>
-      <c r="N6" s="9">
-        <f t="shared" ref="N6:N45" si="2">K6*M6</f>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6" si="2">M6*O6</f>
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>ROW(A7) - ROW($A$4)</f>
         <v>3</v>
@@ -1763,28 +1810,30 @@
       <c r="H7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <f>J7*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <f>L7*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
         <v>140486</v>
       </c>
-      <c r="M7" s="12">
+      <c r="O7" s="12">
         <v>0.34</v>
       </c>
-      <c r="N7" s="10">
-        <f>K7*M7</f>
+      <c r="P7" s="10">
+        <f>M7*O7</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1810,28 +1859,30 @@
       <c r="H8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ref="K8" si="3">J8*$C$2</f>
+      <c r="M8" s="6">
+        <f t="shared" ref="M8" si="3">L8*$C$2</f>
         <v>3</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>1207934</v>
       </c>
-      <c r="M8" s="6">
+      <c r="O8" s="6">
         <v>0.21</v>
       </c>
-      <c r="N8" s="9">
-        <f t="shared" ref="N8" si="4">K8*M8</f>
+      <c r="P8" s="9">
+        <f t="shared" ref="P8" si="4">M8*O8</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>ROW(A9) - ROW($A$4)</f>
         <v>5</v>
@@ -1857,28 +1908,30 @@
       <c r="H9" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
         <v>2</v>
       </c>
-      <c r="K9" s="12">
-        <f>J9*$C$2</f>
+      <c r="M9" s="12">
+        <f>L9*$C$2</f>
         <v>2</v>
       </c>
-      <c r="L9" s="12">
+      <c r="N9" s="12">
         <v>1921319</v>
       </c>
-      <c r="M9" s="12">
+      <c r="O9" s="12">
         <v>0.19</v>
       </c>
-      <c r="N9" s="10">
-        <f>K9*M9</f>
+      <c r="P9" s="10">
+        <f>M9*O9</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1904,28 +1957,30 @@
       <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
-        <f t="shared" ref="K10:K12" si="5">J10*$C$2</f>
+      <c r="M10" s="6">
+        <f t="shared" ref="M10" si="5">L10*$C$2</f>
         <v>2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="N10" s="6">
         <v>6411</v>
       </c>
-      <c r="M10" s="6">
+      <c r="O10" s="6">
         <v>0.1</v>
       </c>
-      <c r="N10" s="9">
-        <f t="shared" ref="N10:N12" si="6">K10*M10</f>
+      <c r="P10" s="9">
+        <f t="shared" ref="P10" si="6">M10*O10</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f>ROW(A11) - ROW($A$4)</f>
         <v>7</v>
@@ -1951,28 +2006,30 @@
       <c r="H11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <v>6</v>
       </c>
-      <c r="K11" s="12">
-        <f>J11*$C$2</f>
+      <c r="M11" s="12">
+        <f>L11*$C$2</f>
         <v>6</v>
       </c>
-      <c r="L11" s="12">
+      <c r="N11" s="12">
         <v>18094667</v>
       </c>
-      <c r="M11" s="12">
+      <c r="O11" s="12">
         <v>0.11</v>
       </c>
-      <c r="N11" s="10">
-        <f>K11*M11</f>
+      <c r="P11" s="10">
+        <f>M11*O11</f>
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1998,28 +2055,30 @@
       <c r="H12" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="K12" s="6">
-        <f t="shared" ref="K12" si="7">J12*$C$2</f>
+      <c r="M12" s="6">
+        <f t="shared" ref="M12" si="7">L12*$C$2</f>
         <v>2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="N12" s="6">
         <v>721063</v>
       </c>
-      <c r="M12" s="6">
+      <c r="O12" s="6">
         <v>0.1</v>
       </c>
-      <c r="N12" s="9">
-        <f t="shared" ref="N12" si="8">K12*M12</f>
+      <c r="P12" s="9">
+        <f t="shared" ref="P12" si="8">M12*O12</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f>ROW(A13) - ROW($A$4)</f>
         <v>9</v>
@@ -2045,28 +2104,30 @@
       <c r="H13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <v>3</v>
       </c>
-      <c r="K13" s="12">
-        <f>J13*$C$2</f>
+      <c r="M13" s="12">
+        <f>L13*$C$2</f>
         <v>3</v>
       </c>
-      <c r="L13" s="12">
+      <c r="N13" s="12">
         <v>62593</v>
       </c>
-      <c r="M13" s="12">
+      <c r="O13" s="12">
         <v>0.43</v>
       </c>
-      <c r="N13" s="10">
-        <f>K13*M13</f>
+      <c r="P13" s="10">
+        <f>M13*O13</f>
         <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2092,75 +2153,83 @@
       <c r="H14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" ref="K14:K20" si="9">J14*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" ref="M14" si="9">L14*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
         <v>12085</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="6">
         <v>2.66</v>
       </c>
-      <c r="N14" s="9">
-        <f t="shared" ref="N14:N20" si="10">K14*M14</f>
+      <c r="P14" s="9">
+        <f t="shared" ref="P14" si="10">M14*O14</f>
         <v>2.66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
         <f>ROW(A15) - ROW($A$4)</f>
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <f>J15*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="K15" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26">
+        <f>L15*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="26">
         <v>1150</v>
       </c>
-      <c r="M15" s="12">
+      <c r="O15" s="26">
         <v>1.05</v>
       </c>
-      <c r="N15" s="10">
-        <f>K15*M15</f>
+      <c r="P15" s="27">
+        <f>M15*O15</f>
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2186,28 +2255,30 @@
       <c r="H16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" ref="K16" si="11">J16*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" ref="M16" si="11">L16*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
         <v>100</v>
       </c>
-      <c r="M16" s="6">
+      <c r="O16" s="6">
         <v>21</v>
       </c>
-      <c r="N16" s="9">
-        <f t="shared" ref="N16" si="12">K16*M16</f>
+      <c r="P16" s="9">
+        <f t="shared" ref="P16" si="12">M16*O16</f>
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <f>ROW(A17) - ROW($A$4)</f>
         <v>13</v>
@@ -2229,24 +2300,26 @@
       <c r="H17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12">
-        <f>J17*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="10">
-        <f>K17*M17</f>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <f>L17*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="10">
+        <f>M17*O17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2268,28 +2341,30 @@
       <c r="H18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>4</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:K20" si="13">J18*$C$2</f>
+      <c r="M18" s="6">
+        <f t="shared" ref="M18" si="13">L18*$C$2</f>
         <v>4</v>
       </c>
-      <c r="L18" s="6">
+      <c r="N18" s="6">
         <v>23842</v>
       </c>
-      <c r="M18" s="6">
+      <c r="O18" s="6">
         <v>4.79</v>
       </c>
-      <c r="N18" s="9">
-        <f t="shared" ref="N18:N20" si="14">K18*M18</f>
+      <c r="P18" s="9">
+        <f t="shared" ref="P18" si="14">M18*O18</f>
         <v>19.16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <f>ROW(A19) - ROW($A$4)</f>
         <v>15</v>
@@ -2311,75 +2386,83 @@
       <c r="H19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12">
-        <f>J19*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="12">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <f>L19*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
         <v>120302</v>
       </c>
-      <c r="M19" s="12">
+      <c r="O19" s="12">
         <v>0.59</v>
       </c>
-      <c r="N19" s="10">
-        <f>K19*M19</f>
+      <c r="P19" s="10">
+        <f>M19*O19</f>
         <v>0.59</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" ref="K20" si="15">J20*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" ref="M20" si="15">L20*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="21">
         <v>64196</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="21">
         <v>0.15</v>
       </c>
-      <c r="N20" s="9">
-        <f t="shared" ref="N20" si="16">K20*M20</f>
+      <c r="P20" s="22">
+        <f t="shared" ref="P20" si="16">M20*O20</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <f>ROW(A21) - ROW($A$4)</f>
         <v>17</v>
@@ -2405,28 +2488,30 @@
       <c r="H21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J21" s="11">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12">
-        <f>J21*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <f>L21*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="12">
         <v>95759</v>
       </c>
-      <c r="M21" s="12">
+      <c r="O21" s="12">
         <v>0.16</v>
       </c>
-      <c r="N21" s="10">
-        <f>K21*M21</f>
+      <c r="P21" s="10">
+        <f>M21*O21</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2452,28 +2537,30 @@
       <c r="H22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>2</v>
       </c>
-      <c r="K22" s="6">
-        <f t="shared" ref="K22:K36" si="17">J22*$C$2</f>
+      <c r="M22" s="6">
+        <f t="shared" ref="M22" si="17">L22*$C$2</f>
         <v>2</v>
       </c>
-      <c r="L22" s="6">
+      <c r="N22" s="6">
         <v>7471</v>
       </c>
-      <c r="M22" s="6">
+      <c r="O22" s="6">
         <v>0.1</v>
       </c>
-      <c r="N22" s="9">
-        <f t="shared" ref="N22:N36" si="18">K22*M22</f>
+      <c r="P22" s="9">
+        <f t="shared" ref="P22" si="18">M22*O22</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <f>ROW(A23) - ROW($A$4)</f>
         <v>19</v>
@@ -2495,24 +2582,26 @@
       <c r="H23" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="12">
-        <f>J23*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="10">
-        <f>K23*M23</f>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12">
+        <f>L23*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="10">
+        <f>M23*O23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2538,28 +2627,30 @@
       <c r="H24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" ref="K24" si="19">J24*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" ref="M24" si="19">L24*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
         <v>36305</v>
       </c>
-      <c r="M24" s="6">
+      <c r="O24" s="6">
         <v>0.11</v>
       </c>
-      <c r="N24" s="9">
-        <f t="shared" ref="N24" si="20">K24*M24</f>
+      <c r="P24" s="9">
+        <f t="shared" ref="P24" si="20">M24*O24</f>
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <f>ROW(A25) - ROW($A$4)</f>
         <v>21</v>
@@ -2583,28 +2674,30 @@
       <c r="H25" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="12">
-        <f>J25*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L25" s="12">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
+        <f>L25*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
         <v>43305</v>
       </c>
-      <c r="M25" s="12">
+      <c r="O25" s="12">
         <v>0.1</v>
       </c>
-      <c r="N25" s="10">
-        <f>K25*M25</f>
+      <c r="P25" s="10">
+        <f>M25*O25</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2628,28 +2721,30 @@
       <c r="H26" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" ref="K26:K28" si="21">J26*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" ref="M26" si="21">L26*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
         <v>2592389</v>
       </c>
-      <c r="M26" s="6">
+      <c r="O26" s="6">
         <v>0.1</v>
       </c>
-      <c r="N26" s="9">
-        <f t="shared" ref="N26:N28" si="22">K26*M26</f>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26" si="22">M26*O26</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <f>ROW(A27) - ROW($A$4)</f>
         <v>23</v>
@@ -2673,28 +2768,30 @@
       <c r="H27" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="12">
-        <f>J27*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L27" s="12">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11">
+        <v>1</v>
+      </c>
+      <c r="M27" s="12">
+        <f>L27*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
         <v>183939</v>
       </c>
-      <c r="M27" s="12">
+      <c r="O27" s="12">
         <v>0.1</v>
       </c>
-      <c r="N27" s="10">
-        <f>K27*M27</f>
+      <c r="P27" s="10">
+        <f>M27*O27</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2720,28 +2817,30 @@
       <c r="H28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" ref="K28" si="23">J28*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28" si="23">L28*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
         <v>9250111</v>
       </c>
-      <c r="M28" s="6">
+      <c r="O28" s="6">
         <v>0.1</v>
       </c>
-      <c r="N28" s="9">
-        <f t="shared" ref="N28" si="24">K28*M28</f>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28" si="24">M28*O28</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <f>ROW(A29) - ROW($A$4)</f>
         <v>25</v>
@@ -2765,28 +2864,30 @@
       <c r="H29" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
-      <c r="K29" s="12">
-        <f>J29*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="12">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12">
+        <f>L29*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="12">
         <v>12049890</v>
       </c>
-      <c r="M29" s="12">
+      <c r="O29" s="12">
         <v>0.1</v>
       </c>
-      <c r="N29" s="10">
-        <f>K29*M29</f>
+      <c r="P29" s="10">
+        <f>M29*O29</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2812,28 +2913,30 @@
       <c r="H30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" ref="K30:K36" si="25">J30*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L30" s="6">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" ref="M30" si="25">L30*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
         <v>15475549</v>
       </c>
-      <c r="M30" s="6">
+      <c r="O30" s="6">
         <v>0.1</v>
       </c>
-      <c r="N30" s="9">
-        <f t="shared" ref="N30:N36" si="26">K30*M30</f>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30" si="26">M30*O30</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <f>ROW(A31) - ROW($A$4)</f>
         <v>27</v>
@@ -2857,28 +2960,30 @@
       <c r="H31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="12">
-        <f>J31*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="12">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
+        <v>1</v>
+      </c>
+      <c r="M31" s="12">
+        <f>L31*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="12">
         <v>108398</v>
       </c>
-      <c r="M31" s="12">
+      <c r="O31" s="12">
         <v>0.1</v>
       </c>
-      <c r="N31" s="10">
-        <f>K31*M31</f>
+      <c r="P31" s="10">
+        <f>M31*O31</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2904,28 +3009,30 @@
       <c r="H32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" ref="K32" si="27">J32*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32" si="27">L32*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
         <v>5940</v>
       </c>
-      <c r="M32" s="6">
+      <c r="O32" s="6">
         <v>0.1</v>
       </c>
-      <c r="N32" s="9">
-        <f t="shared" ref="N32" si="28">K32*M32</f>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32" si="28">M32*O32</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <f>ROW(A33) - ROW($A$4)</f>
         <v>29</v>
@@ -2949,28 +3056,30 @@
       <c r="H33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="12">
-        <f>J33*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="12">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="12">
+        <f>L33*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="12">
         <v>2077483</v>
       </c>
-      <c r="M33" s="12">
+      <c r="O33" s="12">
         <v>0.33</v>
       </c>
-      <c r="N33" s="10">
-        <f>K33*M33</f>
+      <c r="P33" s="10">
+        <f>M33*O33</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2992,28 +3101,30 @@
       <c r="H34" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34:K36" si="29">J34*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L34" s="6">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" ref="M34" si="29">L34*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
         <v>2100</v>
       </c>
-      <c r="M34" s="6">
+      <c r="O34" s="6">
         <v>11</v>
       </c>
-      <c r="N34" s="9">
-        <f t="shared" ref="N34:N36" si="30">K34*M34</f>
+      <c r="P34" s="9">
+        <f t="shared" ref="P34" si="30">M34*O34</f>
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <f>ROW(A35) - ROW($A$4)</f>
         <v>31</v>
@@ -3037,28 +3148,30 @@
       <c r="H35" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="12">
-        <f>J35*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L35" s="12">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11">
+        <v>1</v>
+      </c>
+      <c r="M35" s="12">
+        <f>L35*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="12">
         <v>984</v>
       </c>
-      <c r="M35" s="12">
+      <c r="O35" s="12">
         <v>17.850000000000001</v>
       </c>
-      <c r="N35" s="10">
-        <f>K35*M35</f>
+      <c r="P35" s="10">
+        <f>M35*O35</f>
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3084,28 +3197,30 @@
       <c r="H36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" ref="K36" si="31">J36*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" ref="M36" si="31">L36*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
         <v>2116</v>
       </c>
-      <c r="M36" s="6">
+      <c r="O36" s="6">
         <v>6.13</v>
       </c>
-      <c r="N36" s="9">
-        <f t="shared" ref="N36" si="32">K36*M36</f>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36" si="32">M36*O36</f>
         <v>6.13</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <f>ROW(A37) - ROW($A$4)</f>
         <v>33</v>
@@ -3129,28 +3244,30 @@
       <c r="H37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="12">
-        <f>J37*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L37" s="12">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="12">
+        <f>L37*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="12">
         <v>128657</v>
       </c>
-      <c r="M37" s="12">
+      <c r="O37" s="12">
         <v>1.78</v>
       </c>
-      <c r="N37" s="10">
-        <f>K37*M37</f>
+      <c r="P37" s="10">
+        <f>M37*O37</f>
         <v>1.78</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3176,28 +3293,30 @@
       <c r="H38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" ref="K38:K45" si="33">J38*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L38" s="6">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" ref="M38" si="33">L38*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
         <v>23964</v>
       </c>
-      <c r="M38" s="6">
+      <c r="O38" s="6">
         <v>0.19</v>
       </c>
-      <c r="N38" s="9">
-        <f t="shared" ref="N38:N45" si="34">K38*M38</f>
+      <c r="P38" s="9">
+        <f t="shared" ref="P38" si="34">M38*O38</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <f>ROW(A39) - ROW($A$4)</f>
         <v>35</v>
@@ -3223,28 +3342,30 @@
       <c r="H39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
-      <c r="K39" s="12">
-        <f>J39*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L39" s="12">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="12">
+        <f>L39*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="12">
         <v>253873</v>
       </c>
-      <c r="M39" s="12">
+      <c r="O39" s="12">
         <v>0.27</v>
       </c>
-      <c r="N39" s="10">
-        <f>K39*M39</f>
+      <c r="P39" s="10">
+        <f>M39*O39</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3270,28 +3391,30 @@
       <c r="H40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" ref="K40" si="35">J40*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L40" s="6">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" ref="M40" si="35">L40*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
         <v>7278</v>
       </c>
-      <c r="M40" s="6">
+      <c r="O40" s="6">
         <v>1.76</v>
       </c>
-      <c r="N40" s="9">
-        <f t="shared" ref="N40" si="36">K40*M40</f>
+      <c r="P40" s="9">
+        <f t="shared" ref="P40" si="36">M40*O40</f>
         <v>1.76</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <f>ROW(A41) - ROW($A$4)</f>
         <v>37</v>
@@ -3317,28 +3440,30 @@
       <c r="H41" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
-      <c r="K41" s="12">
-        <f>J41*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L41" s="12">
+      <c r="K41" s="11"/>
+      <c r="L41" s="11">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12">
+        <f>L41*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
         <v>35214</v>
       </c>
-      <c r="M41" s="12">
+      <c r="O41" s="12">
         <v>3.88</v>
       </c>
-      <c r="N41" s="10">
-        <f>K41*M41</f>
+      <c r="P41" s="10">
+        <f>M41*O41</f>
         <v>3.88</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3364,28 +3489,30 @@
       <c r="H42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J42" s="5">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
         <v>2</v>
       </c>
-      <c r="K42" s="6">
-        <f t="shared" ref="K42:K44" si="37">J42*$C$2</f>
+      <c r="M42" s="6">
+        <f t="shared" ref="M42" si="37">L42*$C$2</f>
         <v>2</v>
       </c>
-      <c r="L42" s="6">
+      <c r="N42" s="6">
         <v>9271</v>
       </c>
-      <c r="M42" s="6">
+      <c r="O42" s="6">
         <v>4.49</v>
       </c>
-      <c r="N42" s="9">
-        <f t="shared" ref="N42:N44" si="38">K42*M42</f>
+      <c r="P42" s="9">
+        <f t="shared" ref="P42" si="38">M42*O42</f>
         <v>8.98</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <f>ROW(A43) - ROW($A$4)</f>
         <v>39</v>
@@ -3411,28 +3538,30 @@
       <c r="H43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="J43" s="11">
-        <v>1</v>
-      </c>
-      <c r="K43" s="12">
-        <f>J43*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L43" s="12">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="12">
+        <f>L43*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="12">
         <v>170376</v>
       </c>
-      <c r="M43" s="12">
+      <c r="O43" s="12">
         <v>0.71</v>
       </c>
-      <c r="N43" s="10">
-        <f>K43*M43</f>
+      <c r="P43" s="10">
+        <f>M43*O43</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3458,28 +3587,30 @@
       <c r="H44" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" ref="K44" si="39">J44*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" ref="M44" si="39">L44*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="6">
         <v>64899</v>
       </c>
-      <c r="M44" s="6">
+      <c r="O44" s="6">
         <v>0.8</v>
       </c>
-      <c r="N44" s="9">
-        <f t="shared" ref="N44" si="40">K44*M44</f>
+      <c r="P44" s="9">
+        <f t="shared" ref="P44" si="40">M44*O44</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <f>ROW(A45) - ROW($A$4)</f>
         <v>41</v>
@@ -3503,28 +3634,30 @@
       <c r="H45" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J45" s="11">
-        <v>1</v>
-      </c>
-      <c r="K45" s="12">
-        <f>J45*$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="L45" s="12">
+      <c r="K45" s="11"/>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="12">
+        <f>L45*$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="12">
         <v>1403146</v>
       </c>
-      <c r="M45" s="12">
+      <c r="O45" s="12">
         <v>0.72</v>
       </c>
-      <c r="N45" s="10">
-        <f>K45*M45</f>
+      <c r="P45" s="10">
+        <f>M45*O45</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3535,15 +3668,17 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="16">
-        <f>SUM(N5:N45)</f>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="16">
+        <f>SUM(P5:P45)</f>
         <v>104.21</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3558,8 +3693,10 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3574,214 +3711,216 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThanOrEqual">
-      <formula>$K5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThanOrEqual">
-      <formula>$K6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
+  <conditionalFormatting sqref="N5">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThanOrEqual">
+      <formula>$M5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="lessThanOrEqual">
+      <formula>$M6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThanOrEqual">
-      <formula>$K7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+      <formula>$M7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThanOrEqual">
-      <formula>$K8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+      <formula>$M8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThanOrEqual">
-      <formula>$K9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
+      <formula>$M9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThanOrEqual">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+      <formula>$M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThanOrEqual">
-      <formula>$K11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+      <formula>$M11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThanOrEqual">
-      <formula>$K12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+      <formula>$M12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThanOrEqual">
-      <formula>$K13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+      <formula>$M13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThanOrEqual">
-      <formula>$K14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+      <formula>$M14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThanOrEqual">
-      <formula>$K15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+      <formula>$M15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThanOrEqual">
-      <formula>$K16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+      <formula>$M16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThanOrEqual">
-      <formula>$K17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+      <formula>$M17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThanOrEqual">
-      <formula>$K18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+      <formula>$M18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThanOrEqual">
-      <formula>$K19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+      <formula>$M19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThanOrEqual">
-      <formula>$K20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+      <formula>$M20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThanOrEqual">
-      <formula>$K21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+      <formula>$M21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThanOrEqual">
-      <formula>$K22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+      <formula>$M22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThanOrEqual">
-      <formula>$K23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+      <formula>$M23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThanOrEqual">
-      <formula>$K24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+      <formula>$M24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThanOrEqual">
-      <formula>$K25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+      <formula>$M25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThanOrEqual">
-      <formula>$K26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+      <formula>$M26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThanOrEqual">
-      <formula>$K27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+      <formula>$M27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThanOrEqual">
-      <formula>$K28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+      <formula>$M28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
-      <formula>$K29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+      <formula>$M29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThanOrEqual">
-      <formula>$K30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+      <formula>$M30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThanOrEqual">
-      <formula>$K31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+      <formula>$M31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThanOrEqual">
-      <formula>$K32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
+      <formula>$M32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThanOrEqual">
-      <formula>$K33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+      <formula>$M33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThanOrEqual">
-      <formula>$K34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
+      <formula>$M34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThanOrEqual">
-      <formula>$K35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
+      <formula>$M35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThanOrEqual">
-      <formula>$K36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+      <formula>$M36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThanOrEqual">
-      <formula>$K37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+      <formula>$M37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThanOrEqual">
-      <formula>$K38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
+      <formula>$M38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
-      <formula>$K39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+      <formula>$M39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
-      <formula>$K40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
+      <formula>$M40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
-      <formula>$K41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L42">
+      <formula>$M41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
-      <formula>$K42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
+      <formula>$M42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>$K43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
+      <formula>$M43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
-      <formula>$K44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
+      <formula>$M44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>$K45</formula>
+      <formula>$M45</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
